--- a/data/pred_med.xlsx
+++ b/data/pred_med.xlsx
@@ -432,10 +432,10 @@
         <v>37.80093543772192</v>
       </c>
       <c r="D3">
-        <v>5.786408097620122</v>
+        <v>3.975099247129116</v>
       </c>
       <c r="E3">
-        <v>67.05132627710658</v>
+        <v>71.62677162831471</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,10 +449,10 @@
         <v>34.98467851729161</v>
       </c>
       <c r="D4">
-        <v>5.786408097620122</v>
+        <v>-0.09979062275484551</v>
       </c>
       <c r="E4">
-        <v>67.05132627710658</v>
+        <v>70.06914765733808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,10 +466,10 @@
         <v>41.28341375929325</v>
       </c>
       <c r="D5">
-        <v>5.786408097620122</v>
+        <v>2.559642715561623</v>
       </c>
       <c r="E5">
-        <v>67.05132627710658</v>
+        <v>80.00718480302487</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,10 +483,10 @@
         <v>48.65500650602832</v>
       </c>
       <c r="D6">
-        <v>5.786408097620122</v>
+        <v>7.63595513520972</v>
       </c>
       <c r="E6">
-        <v>67.05132627710658</v>
+        <v>89.67405787684692</v>
       </c>
     </row>
   </sheetData>
